--- a/Class_03/CasosenExcel.xlsx
+++ b/Class_03/CasosenExcel.xlsx
@@ -390,16 +390,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B2">
-        <v>152</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D2">
-        <v>54</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -413,16 +417,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B3">
-        <v>152</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D3">
-        <v>40</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -436,16 +444,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B4">
-        <v>152</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D4">
-        <v>58</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -459,16 +471,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B5">
-        <v>152</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D5">
-        <v>17</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -482,16 +498,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B6">
-        <v>152</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D6">
-        <v>83</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -505,16 +525,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B7">
-        <v>152</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D7">
-        <v>14</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -528,16 +552,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B8">
-        <v>152</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D8">
-        <v>42</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -552,16 +580,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B9">
-        <v>152</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D9">
-        <v>40</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -576,16 +608,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B10">
-        <v>152</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D10">
-        <v>31</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -599,16 +635,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B11">
-        <v>152</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D11">
-        <v>32</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -622,16 +662,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B12">
-        <v>152</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>Fememino</t>
         </is>
       </c>
-      <c r="D12">
-        <v>58</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -645,16 +689,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B13">
-        <v>152</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D13">
-        <v>48</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -668,16 +716,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B14">
-        <v>152</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D14">
-        <v>23</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -692,16 +744,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B15">
-        <v>152</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D15">
-        <v>26</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -716,16 +772,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B16">
-        <v>152</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D16">
-        <v>46</v>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -739,16 +799,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B17">
-        <v>152</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D17">
-        <v>67</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -762,16 +826,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B18">
-        <v>152</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D18">
-        <v>31</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -785,16 +853,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B19">
-        <v>152</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D19">
-        <v>46</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -808,16 +880,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B20">
-        <v>152</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D20">
-        <v>23</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -831,16 +907,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B21">
-        <v>152</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D21">
-        <v>34</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -854,16 +934,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B22">
-        <v>152</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D22">
-        <v>29</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -877,16 +961,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B23">
-        <v>152</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D23">
-        <v>28</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -900,16 +988,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B24">
-        <v>152</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D24">
-        <v>21</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -923,16 +1015,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B25">
-        <v>152</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D25">
-        <v>35</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -946,16 +1042,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B26">
-        <v>152</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D26">
-        <v>50</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -969,12 +1069,19 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B27">
-        <v>152</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -989,16 +1096,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B28">
-        <v>152</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D28">
-        <v>31</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1013,16 +1124,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B29">
-        <v>152</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D29">
-        <v>47</v>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1036,16 +1151,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B30">
-        <v>152</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D30">
-        <v>39</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1060,16 +1179,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B31">
-        <v>152</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D31">
-        <v>37</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1083,16 +1206,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B32">
-        <v>152</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D32">
-        <v>28</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1106,16 +1233,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B33">
-        <v>152</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D33">
-        <v>29</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1130,16 +1261,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B34">
-        <v>152</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D34">
-        <v>28</v>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1154,16 +1289,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B35">
-        <v>152</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D35">
-        <v>53</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1177,16 +1316,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B36">
-        <v>152</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D36">
-        <v>38</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1200,16 +1343,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B37">
-        <v>152</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D37">
-        <v>55</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1223,16 +1370,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B38">
-        <v>152</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D38">
-        <v>51</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1246,16 +1397,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B39">
-        <v>152</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D39">
-        <v>23</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1269,16 +1424,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B40">
-        <v>152</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D40">
-        <v>36</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1292,16 +1451,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B41">
-        <v>152</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D41">
-        <v>58</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1315,16 +1478,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B42">
-        <v>152</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D42">
-        <v>42</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1338,16 +1505,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B43">
-        <v>152</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D43">
-        <v>49</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1361,16 +1532,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B44">
-        <v>152</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D44">
-        <v>29</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1385,16 +1560,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B45">
-        <v>152</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D45">
-        <v>61</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1409,16 +1588,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B46">
-        <v>152</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D46">
-        <v>15</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1433,12 +1616,19 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B47">
-        <v>152</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
           <t>Masculino</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1453,16 +1643,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B48">
-        <v>152</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D48">
-        <v>42</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1476,16 +1670,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B49">
-        <v>152</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D49">
-        <v>48</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1499,16 +1697,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B50">
-        <v>152</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D50">
-        <v>45</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1523,16 +1725,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B51">
-        <v>152</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D51">
-        <v>29</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1546,16 +1752,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B52">
-        <v>152</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D52">
-        <v>24</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1570,16 +1780,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B53">
-        <v>152</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D53">
-        <v>45</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1594,16 +1808,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B54">
-        <v>152</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D54">
-        <v>70</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1618,16 +1836,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B55">
-        <v>152</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D55">
-        <v>58</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1641,16 +1863,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B56">
-        <v>152</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D56">
-        <v>43</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1664,16 +1890,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B57">
-        <v>152</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D57">
-        <v>45</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1687,16 +1917,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B58">
-        <v>152</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D58">
-        <v>38</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1710,16 +1944,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B59">
-        <v>152</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D59">
-        <v>53</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1733,16 +1971,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B60">
-        <v>152</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D60">
-        <v>38</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1756,16 +1998,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B61">
-        <v>152</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D61">
-        <v>32</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1779,16 +2025,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B62">
-        <v>152</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D62">
-        <v>39</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1802,16 +2052,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B63">
-        <v>152</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D63">
-        <v>35</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1825,16 +2079,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B64">
-        <v>152</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D64">
-        <v>32</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1848,16 +2106,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B65">
-        <v>152</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D65">
-        <v>31</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1871,16 +2133,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B66">
-        <v>152</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D66">
-        <v>46</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1894,16 +2160,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B67">
-        <v>152</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D67">
-        <v>35</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1917,16 +2187,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B68">
-        <v>152</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D68">
-        <v>63</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1940,16 +2214,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B69">
-        <v>152</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D69">
-        <v>62</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1963,16 +2241,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B70">
-        <v>152</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D70">
-        <v>62</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1986,16 +2268,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B71">
-        <v>152</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D71">
-        <v>52</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2009,16 +2295,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B72">
-        <v>152</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D72">
-        <v>34</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2032,16 +2322,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B73">
-        <v>152</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D73">
-        <v>33</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2055,16 +2349,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B74">
-        <v>152</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D74">
-        <v>42</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2078,16 +2376,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B75">
-        <v>152</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D75">
-        <v>29</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2101,16 +2403,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B76">
-        <v>152</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D76">
-        <v>28</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2124,16 +2430,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B77">
-        <v>152</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D77">
-        <v>27</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2147,16 +2457,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B78">
-        <v>152</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D78">
-        <v>40</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2170,16 +2484,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B79">
-        <v>152</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D79">
-        <v>24</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2193,16 +2511,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B80">
-        <v>152</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D80">
-        <v>49</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2216,12 +2538,19 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B81">
-        <v>152</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
           <t>Femenino</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2236,16 +2565,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B82">
-        <v>152</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D82">
-        <v>33</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2259,16 +2592,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B83">
-        <v>152</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D83">
-        <v>29</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2282,16 +2619,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B84">
-        <v>152</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D84">
-        <v>59</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2305,16 +2646,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B85">
-        <v>152</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D85">
-        <v>13</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2328,16 +2673,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B86">
-        <v>152</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D86">
-        <v>33</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2351,16 +2700,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B87">
-        <v>152</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D87">
-        <v>33</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2374,16 +2727,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B88">
-        <v>152</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D88">
-        <v>45</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2397,16 +2754,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B89">
-        <v>152</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D89">
-        <v>41</v>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2420,16 +2781,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B90">
-        <v>152</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D90">
-        <v>29</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2443,16 +2808,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B91">
-        <v>152</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D91">
-        <v>37</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2466,16 +2835,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B92">
-        <v>152</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D92">
-        <v>40</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2489,16 +2862,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B93">
-        <v>152</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D93">
-        <v>58</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2512,16 +2889,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B94">
-        <v>152</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D94">
-        <v>31</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2535,16 +2916,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B95">
-        <v>152</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D95">
-        <v>48</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2558,16 +2943,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B96">
-        <v>152</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D96">
-        <v>41</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2581,16 +2970,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B97">
-        <v>152</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D97">
-        <v>45</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2604,16 +2997,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B98">
-        <v>152</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D98">
-        <v>33</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2627,16 +3024,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B99">
-        <v>152</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D99">
-        <v>54</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2650,16 +3051,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B100">
-        <v>152</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D100">
-        <v>40</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2673,16 +3078,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B101">
-        <v>152</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D101">
-        <v>27</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2696,16 +3105,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B102">
-        <v>152</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D102">
-        <v>23</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2719,16 +3132,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B103">
-        <v>152</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D103">
-        <v>39</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2742,16 +3159,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B104">
-        <v>152</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D104">
-        <v>41</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2765,16 +3186,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B105">
-        <v>152</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D105">
-        <v>43</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2788,16 +3213,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B106">
-        <v>152</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D106">
-        <v>49</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2811,16 +3240,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B107">
-        <v>152</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D107">
-        <v>30</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2834,16 +3267,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B108">
-        <v>152</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D108">
-        <v>35</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2857,16 +3294,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B109">
-        <v>152</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D109">
-        <v>46</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2880,16 +3321,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B110">
-        <v>152</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D110">
-        <v>31</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2903,16 +3348,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B111">
-        <v>152</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D111">
-        <v>40</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2926,16 +3375,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B112">
-        <v>152</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D112">
-        <v>44</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2949,16 +3402,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B113">
-        <v>152</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D113">
-        <v>42</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2972,16 +3429,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B114">
-        <v>152</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D114">
-        <v>43</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2995,16 +3456,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B115">
-        <v>152</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D115">
-        <v>39</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3018,16 +3483,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B116">
-        <v>152</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D116">
-        <v>26</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3041,16 +3510,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B117">
-        <v>152</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D117">
-        <v>46</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3064,16 +3537,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B118">
-        <v>152</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D118">
-        <v>41</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3087,16 +3564,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B119">
-        <v>152</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D119">
-        <v>51</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3110,16 +3591,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B120">
-        <v>152</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D120">
-        <v>31</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3133,16 +3618,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B121">
-        <v>152</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D121">
-        <v>1</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3156,16 +3645,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B122">
-        <v>152</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D122">
-        <v>5</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3179,16 +3672,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B123">
-        <v>152</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D123">
-        <v>45</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3202,16 +3699,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B124">
-        <v>152</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D124">
-        <v>29</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3225,16 +3726,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B125">
-        <v>152</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D125">
-        <v>61</v>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3248,16 +3753,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B126">
-        <v>152</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D126">
-        <v>33</v>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3271,16 +3780,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B127">
-        <v>152</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D127">
-        <v>48</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3294,16 +3807,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B128">
-        <v>152</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D128">
-        <v>31</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3317,16 +3834,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B129">
-        <v>152</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D129">
-        <v>32</v>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3340,16 +3861,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B130">
-        <v>152</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D130">
-        <v>56</v>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3363,16 +3888,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B131">
-        <v>152</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D131">
-        <v>56</v>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3386,16 +3915,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B132">
-        <v>152</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D132">
-        <v>75</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3409,16 +3942,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B133">
-        <v>152</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D133">
-        <v>47</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3432,16 +3969,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B134">
-        <v>152</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D134">
-        <v>36</v>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -3455,16 +3996,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B135">
-        <v>152</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D135">
-        <v>45</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3478,16 +4023,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B136">
-        <v>152</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D136">
-        <v>38</v>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3501,16 +4050,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B137">
-        <v>152</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D137">
-        <v>41</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3524,16 +4077,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B138">
-        <v>152</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D138">
-        <v>29</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -3547,16 +4104,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B139">
-        <v>152</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D139">
-        <v>57</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3570,16 +4131,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B140">
-        <v>152</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D140">
-        <v>43</v>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3593,16 +4158,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B141">
-        <v>152</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D141">
-        <v>44</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3616,16 +4185,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B142">
-        <v>152</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D142">
-        <v>50</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3639,16 +4212,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B143">
-        <v>152</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D143">
-        <v>22</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3662,16 +4239,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B144">
-        <v>152</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D144">
-        <v>39</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -3685,16 +4266,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B145">
-        <v>152</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D145">
-        <v>43</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3708,16 +4293,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B146">
-        <v>152</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D146">
-        <v>35</v>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3731,16 +4320,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B147">
-        <v>152</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D147">
-        <v>16</v>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -3754,16 +4347,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B148">
-        <v>152</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D148">
-        <v>50</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3777,16 +4374,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B149">
-        <v>152</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D149">
-        <v>56</v>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3800,16 +4401,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B150">
-        <v>152</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D150">
-        <v>49</v>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3823,16 +4428,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B151">
-        <v>152</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D151">
-        <v>28</v>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -3846,16 +4455,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B152">
-        <v>152</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
           <t>Femenino</t>
         </is>
       </c>
-      <c r="D152">
-        <v>34</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -3869,16 +4482,20 @@
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="B153">
-        <v>152</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="D153">
-        <v>73</v>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
